--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2222265531548429</v>
+        <v>2.2222265365069833</v>
       </c>
       <c r="C2">
-        <v>11.01418428185994</v>
+        <v>11.014184251269501</v>
       </c>
       <c r="D2">
-        <v>19.651258214258974</v>
+        <v>19.651258148416616</v>
       </c>
       <c r="E2">
-        <v>29.466913099713128</v>
+        <v>29.466913083573026</v>
       </c>
       <c r="F2">
-        <v>13.280972400774079</v>
+        <v>13.280972376687982</v>
       </c>
       <c r="G2">
-        <v>2.6582368246683168</v>
+        <v>2.6582368297992254</v>
       </c>
       <c r="H2">
-        <v>10.16445429286639</v>
+        <v>10.164454255252414</v>
       </c>
       <c r="I2">
-        <v>15.304485666724975</v>
+        <v>15.304485680090432</v>
       </c>
       <c r="J2">
-        <v>19.374283310196631</v>
+        <v>19.374283263138377</v>
       </c>
       <c r="K2">
-        <v>6.4779205097628774</v>
+        <v>6.4779205213407636</v>
       </c>
       <c r="L2">
-        <v>5.5095097893073612</v>
+        <v>5.5095097617127973</v>
       </c>
       <c r="N2">
-        <v>16.952104336011235</v>
+        <v>16.952104332559522</v>
       </c>
       <c r="O2">
-        <v>16.476256746006442</v>
+        <v>16.476256685521392</v>
       </c>
       <c r="P2">
-        <v>21.630736845449874</v>
+        <v>21.630736817032236</v>
       </c>
       <c r="Q2">
-        <v>6.6409721412272027E-2</v>
+        <v>6.6409668102039382E-2</v>
       </c>
       <c r="S2">
-        <v>28.009976870966334</v>
+        <v>28.009976637123145</v>
       </c>
       <c r="V2">
-        <v>10.187069255401489</v>
+        <v>10.187069201390921</v>
       </c>
       <c r="W2">
-        <v>-13.603097727142984</v>
+        <v>-13.603097756120281</v>
       </c>
       <c r="X2">
-        <v>0.49146685792038658</v>
+        <v>0.49146681951303933</v>
       </c>
       <c r="AA2">
-        <v>21.370787968377716</v>
+        <v>21.370787910662461</v>
       </c>
       <c r="AB2">
-        <v>17.153890371848156</v>
+        <v>17.153890278752179</v>
       </c>
       <c r="AC2">
-        <v>-0.62393637876615893</v>
+        <v>-0.62393636653207329</v>
       </c>
       <c r="AD2">
-        <v>30.308626916608532</v>
+        <v>30.308626803609247</v>
       </c>
       <c r="AE2">
-        <v>10.444548476699687</v>
+        <v>10.444548473975891</v>
       </c>
       <c r="AF2">
-        <v>18.890925643250508</v>
+        <v>18.890925629946924</v>
       </c>
       <c r="AG2">
-        <v>21.066557578599983</v>
+        <v>21.066557517526828</v>
       </c>
       <c r="AH2">
-        <v>23.386772333265714</v>
+        <v>23.386772247170256</v>
       </c>
       <c r="AI2">
-        <v>22.889457807466616</v>
+        <v>22.889457698456543</v>
       </c>
       <c r="AJ2">
-        <v>16.220399249067931</v>
+        <v>16.220399243485478</v>
       </c>
       <c r="AK2">
-        <v>20.48955052705163</v>
+        <v>20.48955046976808</v>
       </c>
       <c r="AL2">
-        <v>-4.8874645958108367</v>
+        <v>-4.8874646333697065</v>
       </c>
       <c r="AM2">
-        <v>20.262779009019972</v>
+        <v>20.262778902774098</v>
       </c>
       <c r="AN2">
-        <v>25.259575232331105</v>
+        <v>25.259575149813511</v>
       </c>
       <c r="AO2">
-        <v>36.723988459371078</v>
+        <v>36.723988347039757</v>
       </c>
       <c r="AP2">
-        <v>25.388042636898923</v>
+        <v>25.388042593804382</v>
       </c>
       <c r="AQ2">
-        <v>-6.8114865054851652</v>
+        <v>-6.811486582493159</v>
       </c>
       <c r="AR2">
-        <v>31.09689802149861</v>
+        <v>31.096898030242986</v>
       </c>
       <c r="AS2">
-        <v>31.154795231381872</v>
+        <v>31.154795124651084</v>
       </c>
       <c r="AU2">
-        <v>22.317705128587566</v>
+        <v>22.317705068482386</v>
       </c>
       <c r="AV2">
-        <v>4.9938812004627957</v>
+        <v>4.9938810744410391</v>
       </c>
       <c r="AW2">
-        <v>8.217462981898457</v>
+        <v>8.2174629120680596</v>
       </c>
       <c r="AX2">
-        <v>25.330092166577096</v>
+        <v>25.330092116190812</v>
       </c>
       <c r="AY2">
-        <v>36.207759006897646</v>
+        <v>36.207758915108251</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1752372319114404</v>
+        <v>8.1752371823161578</v>
       </c>
       <c r="C3">
-        <v>7.6922572576783717</v>
+        <v>7.6922571940299234</v>
       </c>
       <c r="E3">
-        <v>24.550280964340462</v>
+        <v>24.550280935136527</v>
       </c>
       <c r="F3">
-        <v>10.893079284909302</v>
+        <v>10.893079238492662</v>
       </c>
       <c r="G3">
-        <v>20.142973035583619</v>
+        <v>20.142972998154846</v>
       </c>
       <c r="H3">
-        <v>-5.8517841954251288</v>
+        <v>-5.8517842145366465</v>
       </c>
       <c r="J3">
-        <v>23.211544757222462</v>
+        <v>23.211544665316911</v>
       </c>
       <c r="K3">
-        <v>48.805693244040327</v>
+        <v>48.805693206496521</v>
       </c>
       <c r="L3">
-        <v>27.646431460413517</v>
+        <v>27.646431371352719</v>
       </c>
       <c r="M3">
-        <v>-0.32425766067911455</v>
+        <v>-0.32446666214277325</v>
       </c>
       <c r="N3">
-        <v>13.361801352446651</v>
+        <v>13.361801302203441</v>
       </c>
       <c r="P3">
-        <v>22.47258257778735</v>
+        <v>22.472582471810721</v>
       </c>
       <c r="Q3">
-        <v>9.6905959557312329</v>
+        <v>9.6905959037069191</v>
       </c>
       <c r="R3">
-        <v>1.1256233549790002</v>
+        <v>1.1256232347222057</v>
       </c>
       <c r="W3">
-        <v>0.97385642884453594</v>
+        <v>0.97385633775063585</v>
       </c>
       <c r="AA3">
-        <v>23.576974380838937</v>
+        <v>23.576974310646058</v>
       </c>
       <c r="AB3">
-        <v>20.03190760507535</v>
+        <v>20.031907538597878</v>
       </c>
       <c r="AC3">
-        <v>32.532077444994442</v>
+        <v>32.532077422400043</v>
       </c>
       <c r="AD3">
-        <v>30.3766537887734</v>
+        <v>30.376653747276976</v>
       </c>
       <c r="AE3">
-        <v>25.134691339078191</v>
+        <v>25.134691317248993</v>
       </c>
       <c r="AF3">
-        <v>18.673565489438694</v>
+        <v>18.673565439431268</v>
       </c>
       <c r="AG3">
-        <v>9.0794097584658111</v>
+        <v>9.0794096880147706</v>
       </c>
       <c r="AH3">
-        <v>4.8536059235649889</v>
+        <v>4.8536058551114678</v>
       </c>
       <c r="AI3">
-        <v>60.080496308959852</v>
+        <v>60.0804963003865</v>
       </c>
       <c r="AJ3">
-        <v>35.515366294906578</v>
+        <v>35.515366214643478</v>
       </c>
       <c r="AK3">
-        <v>21.101548140429689</v>
+        <v>21.101548090245892</v>
       </c>
       <c r="AL3">
-        <v>14.37866137652308</v>
+        <v>14.378661290410195</v>
       </c>
       <c r="AM3">
-        <v>15.92592179853731</v>
+        <v>15.925921680975783</v>
       </c>
       <c r="AN3">
-        <v>-15.188355042165004</v>
+        <v>-15.18835509202454</v>
       </c>
       <c r="AO3">
-        <v>32.69254889696694</v>
+        <v>32.692548842942877</v>
       </c>
       <c r="AP3">
-        <v>5.8985460885703107</v>
+        <v>5.8985460295019196</v>
       </c>
       <c r="AQ3">
-        <v>20.564372883547264</v>
+        <v>20.564372811082062</v>
       </c>
       <c r="AS3">
-        <v>26.857208807671956</v>
+        <v>26.857208782637098</v>
       </c>
       <c r="AT3">
-        <v>19.35475193563639</v>
+        <v>19.354751867402292</v>
       </c>
       <c r="AU3">
-        <v>13.790661657958928</v>
+        <v>13.790661613432803</v>
       </c>
       <c r="AV3">
-        <v>5.434574218749991</v>
+        <v>5.4345741571561632</v>
       </c>
       <c r="AW3">
-        <v>3.1094056468204059</v>
+        <v>3.1094055914193937</v>
       </c>
       <c r="AX3">
-        <v>15.569312717474077</v>
+        <v>15.569312652412886</v>
       </c>
       <c r="AY3">
-        <v>41.47552628146542</v>
+        <v>41.475526196567237</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.2222265365069833</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11.014184251269501</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>19.651258148416616</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>29.466913083573026</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13.280972376687982</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.6582368297992254</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.164454255252414</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.304485680090432</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.374283263138377</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.4779205213407636</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.5095097617127973</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.952104332559522</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.476256685521392</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.630736817032236</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.6409668102039382E-2</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>28.009976637123145</v>
+        <v>16.484187188528963</v>
       </c>
       <c r="V2">
         <v>10.187069201390921</v>
@@ -570,55 +465,55 @@
         <v>0.49146681951303933</v>
       </c>
       <c r="AA2">
-        <v>21.370787910662461</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.153890278752179</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.62393636653207329</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>30.308626803609247</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.444548473975891</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>18.890925629946924</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>21.066557517526828</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>23.386772247170256</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>22.889457698456543</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>16.220399243485478</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>20.48955046976808</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.8874646333697065</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>20.262778902774098</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>25.259575149813511</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>36.723988347039757</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>25.388042593804382</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-6.811486582493159</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>31.096898030242986</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.1752371823161578</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.6922571940299234</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>24.550280935136527</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.893079238492662</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>20.142972998154846</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-5.8517842145366465</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>23.211544665316911</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>48.805693206496521</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.646431371352719</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.32446666214277325</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.361801302203441</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>22.472582471810721</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.6905959037069191</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.1256232347222057</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0.97385633775063585</v>
       </c>
       <c r="AA3">
-        <v>23.576974310646058</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>20.031907538597878</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>32.532077422400043</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>30.376653747276976</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>25.134691317248993</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>18.673565439431268</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.0794096880147706</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.8536058551114678</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>60.0804963003865</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>35.515366214643478</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>21.101548090245892</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.378661290410195</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.925921680975783</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-15.18835509202454</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>32.692548842942877</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.8985460295019196</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>20.564372811082062</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>26.857208782637098</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.2222265531548429</v>
-      </c>
-      <c r="C2">
-        <v>7.3306633158488621</v>
-      </c>
-      <c r="D2">
-        <v>19.651258214258974</v>
-      </c>
       <c r="E2">
-        <v>29.466913099713128</v>
+        <v>-6.811486582493159</v>
       </c>
       <c r="F2">
         <v>13.280972400774079</v>
@@ -651,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>8.1752372319114404</v>
-      </c>
       <c r="C3">
-        <v>7.6922572576783717</v>
+        <v>1.1256232347222057</v>
+      </c>
+      <c r="D3">
+        <v>-13.535893596395896</v>
       </c>
       <c r="E3">
-        <v>24.550280964340462</v>
+        <v>21.287391935224136</v>
       </c>
       <c r="F3">
         <v>10.893079284909302</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2222265531548429</v>
-      </c>
-      <c r="C2">
-        <v>7.3306633158488621</v>
+        <v>15.319071850583157</v>
       </c>
       <c r="D2">
-        <v>19.651258214258974</v>
-      </c>
-      <c r="E2">
-        <v>29.466913099713128</v>
+        <v>20.262778902774098</v>
       </c>
       <c r="F2">
         <v>13.280972400774079</v>
@@ -643,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1752372319114404</v>
-      </c>
-      <c r="C3">
-        <v>7.6922572576783717</v>
+        <v>13.361801302203441</v>
+      </c>
+      <c r="D3">
+        <v>15.925921680975783</v>
       </c>
       <c r="E3">
-        <v>35.28417248688838</v>
+        <v>-13.535893596395896</v>
       </c>
       <c r="F3">
         <v>10.893079284909302</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,118 +513,124 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.2222265365069833</v>
+      </c>
+      <c r="C2">
+        <v>7.3306632995383039</v>
+      </c>
+      <c r="D2">
+        <v>19.651258148416616</v>
+      </c>
+      <c r="E2">
+        <v>29.466913083573026</v>
+      </c>
+      <c r="F2">
+        <v>13.280972376687982</v>
+      </c>
+      <c r="G2">
+        <v>8.784897874408232</v>
+      </c>
+      <c r="H2">
+        <v>10.164454255252414</v>
+      </c>
+      <c r="I2">
+        <v>22.391631042816218</v>
+      </c>
+      <c r="J2">
+        <v>19.374283263138377</v>
+      </c>
+      <c r="K2">
+        <v>6.4779205213407636</v>
+      </c>
+      <c r="L2">
+        <v>5.9015600373974841</v>
+      </c>
+      <c r="N2">
         <v>15.319071850583157</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>24.296939110983978</v>
+      </c>
+      <c r="Q2">
+        <v>6.6409668102039382E-2</v>
+      </c>
+      <c r="V2">
+        <v>15.906036011791249</v>
+      </c>
+      <c r="W2">
+        <v>-13.603097756120281</v>
+      </c>
+      <c r="X2">
+        <v>0.49146681951303933</v>
+      </c>
+      <c r="AA2">
+        <v>21.370787910662461</v>
+      </c>
+      <c r="AB2">
+        <v>17.153890278752179</v>
+      </c>
+      <c r="AC2">
+        <v>-0.62393636653207329</v>
+      </c>
+      <c r="AD2">
+        <v>30.308626803609247</v>
+      </c>
+      <c r="AE2">
+        <v>10.444548473975891</v>
+      </c>
+      <c r="AF2">
+        <v>18.890925629946924</v>
+      </c>
+      <c r="AG2">
+        <v>21.066557517526828</v>
+      </c>
+      <c r="AH2">
+        <v>23.386772247170256</v>
+      </c>
+      <c r="AI2">
+        <v>22.889457698456543</v>
+      </c>
+      <c r="AJ2">
+        <v>16.220399243485478</v>
+      </c>
+      <c r="AK2">
+        <v>20.48955046976808</v>
+      </c>
+      <c r="AL2">
+        <v>-4.8874646333697065</v>
+      </c>
+      <c r="AM2">
         <v>20.262778902774098</v>
       </c>
-      <c r="F2">
-        <v>13.280972400774079</v>
-      </c>
-      <c r="G2">
-        <v>8.7848978694333457</v>
-      </c>
-      <c r="H2">
-        <v>10.16445429286639</v>
-      </c>
-      <c r="I2">
-        <v>22.391631017441558</v>
-      </c>
-      <c r="J2">
-        <v>19.374283310196631</v>
-      </c>
-      <c r="K2">
-        <v>6.4779205097628774</v>
-      </c>
-      <c r="L2">
-        <v>5.9015600787273801</v>
-      </c>
-      <c r="N2">
-        <v>15.319071863646624</v>
-      </c>
-      <c r="P2">
-        <v>24.296939118534436</v>
-      </c>
-      <c r="Q2">
-        <v>6.6409721412272027E-2</v>
-      </c>
-      <c r="V2">
-        <v>15.906036086948941</v>
-      </c>
-      <c r="W2">
-        <v>-13.603097727142984</v>
-      </c>
-      <c r="X2">
-        <v>0.49146685792038658</v>
-      </c>
-      <c r="AA2">
-        <v>21.370787968377716</v>
-      </c>
-      <c r="AB2">
-        <v>17.153890371848156</v>
-      </c>
-      <c r="AC2">
-        <v>-0.62393637876615893</v>
-      </c>
-      <c r="AD2">
-        <v>30.308626916608532</v>
-      </c>
-      <c r="AE2">
-        <v>10.444548476699687</v>
-      </c>
-      <c r="AF2">
-        <v>18.890925643250508</v>
-      </c>
-      <c r="AG2">
-        <v>21.066557578599983</v>
-      </c>
-      <c r="AH2">
-        <v>23.386772333265714</v>
-      </c>
-      <c r="AI2">
-        <v>22.889457807466616</v>
-      </c>
-      <c r="AJ2">
-        <v>16.220399249067931</v>
-      </c>
-      <c r="AK2">
-        <v>20.48955052705163</v>
-      </c>
-      <c r="AL2">
-        <v>-4.8874645958108367</v>
-      </c>
-      <c r="AM2">
-        <v>20.262779009019972</v>
-      </c>
       <c r="AO2">
-        <v>36.723988459371078</v>
+        <v>36.723988347039757</v>
       </c>
       <c r="AP2">
-        <v>29.22015680467846</v>
+        <v>29.220156773660761</v>
       </c>
       <c r="AQ2">
-        <v>-6.8114865054851652</v>
+        <v>-6.811486582493159</v>
       </c>
       <c r="AR2">
-        <v>31.09689802149861</v>
+        <v>31.096898030242986</v>
       </c>
       <c r="AS2">
-        <v>31.154795231381872</v>
+        <v>31.154795124651084</v>
       </c>
       <c r="AU2">
-        <v>11.367224264486481</v>
+        <v>11.367224193436931</v>
       </c>
       <c r="AV2">
-        <v>4.9938812004627957</v>
+        <v>4.9938810744410391</v>
       </c>
       <c r="AW2">
-        <v>8.217462981898457</v>
+        <v>8.2174629120680596</v>
       </c>
       <c r="AX2">
-        <v>25.330092166577096</v>
+        <v>25.330092116190812</v>
       </c>
       <c r="AY2">
-        <v>36.207759006897646</v>
+        <v>36.207758915108251</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -632,121 +638,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.1752371823161578</v>
+      </c>
+      <c r="C3">
+        <v>7.6922571940299234</v>
+      </c>
+      <c r="E3">
+        <v>35.284172494192845</v>
+      </c>
+      <c r="F3">
+        <v>10.893079238492662</v>
+      </c>
+      <c r="G3">
+        <v>20.142972998154846</v>
+      </c>
+      <c r="H3">
+        <v>-5.8517842145366465</v>
+      </c>
+      <c r="J3">
+        <v>23.211544665316911</v>
+      </c>
+      <c r="K3">
+        <v>39.347388695037345</v>
+      </c>
+      <c r="L3">
+        <v>27.646431371352719</v>
+      </c>
+      <c r="M3">
+        <v>-5.5828924854042086</v>
+      </c>
+      <c r="N3">
         <v>13.361801302203441</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>22.472582471810721</v>
+      </c>
+      <c r="Q3">
+        <v>9.6905959037069191</v>
+      </c>
+      <c r="R3">
+        <v>1.1256232347222057</v>
+      </c>
+      <c r="W3">
+        <v>0.97385633775063585</v>
+      </c>
+      <c r="AA3">
+        <v>23.576974310646058</v>
+      </c>
+      <c r="AB3">
+        <v>20.031907538597878</v>
+      </c>
+      <c r="AC3">
+        <v>32.532077422400043</v>
+      </c>
+      <c r="AD3">
+        <v>30.376653747276976</v>
+      </c>
+      <c r="AE3">
+        <v>25.134691317248993</v>
+      </c>
+      <c r="AF3">
+        <v>18.673565439431268</v>
+      </c>
+      <c r="AG3">
+        <v>9.0794096880147706</v>
+      </c>
+      <c r="AH3">
+        <v>4.8536058551114678</v>
+      </c>
+      <c r="AI3">
+        <v>20.596328226746451</v>
+      </c>
+      <c r="AJ3">
+        <v>35.515366214643478</v>
+      </c>
+      <c r="AK3">
+        <v>21.101548090245892</v>
+      </c>
+      <c r="AL3">
+        <v>14.378661290410195</v>
+      </c>
+      <c r="AM3">
         <v>15.925921680975783</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-13.535893596395896</v>
       </c>
-      <c r="F3">
-        <v>10.893079284909302</v>
-      </c>
-      <c r="G3">
-        <v>20.142973035583619</v>
-      </c>
-      <c r="H3">
-        <v>-5.8517841954251288</v>
-      </c>
-      <c r="J3">
-        <v>23.211544757222462</v>
-      </c>
-      <c r="K3">
-        <v>39.347388735482241</v>
-      </c>
-      <c r="L3">
-        <v>27.646431460413517</v>
-      </c>
-      <c r="M3">
-        <v>-5.5830281140997604</v>
-      </c>
-      <c r="N3">
-        <v>13.361801352446651</v>
-      </c>
-      <c r="P3">
-        <v>22.47258257778735</v>
-      </c>
-      <c r="Q3">
-        <v>9.6905959557312329</v>
-      </c>
-      <c r="R3">
-        <v>1.1256233549790002</v>
-      </c>
-      <c r="W3">
-        <v>0.97385642884453594</v>
-      </c>
-      <c r="AA3">
-        <v>23.576974380838937</v>
-      </c>
-      <c r="AB3">
-        <v>20.03190760507535</v>
-      </c>
-      <c r="AC3">
-        <v>32.532077444994442</v>
-      </c>
-      <c r="AD3">
-        <v>30.3766537887734</v>
-      </c>
-      <c r="AE3">
-        <v>25.134691339078191</v>
-      </c>
-      <c r="AF3">
-        <v>18.673565489438694</v>
-      </c>
-      <c r="AG3">
-        <v>9.0794097584658111</v>
-      </c>
-      <c r="AH3">
-        <v>4.8536059235649889</v>
-      </c>
-      <c r="AI3">
-        <v>20.596328327467553</v>
-      </c>
-      <c r="AJ3">
-        <v>35.515366294906578</v>
-      </c>
-      <c r="AK3">
-        <v>21.101548140429689</v>
-      </c>
-      <c r="AL3">
-        <v>14.37866137652308</v>
-      </c>
-      <c r="AM3">
-        <v>15.92592179853731</v>
-      </c>
-      <c r="AN3">
-        <v>-13.535893543196076</v>
-      </c>
       <c r="AO3">
-        <v>32.69254889696694</v>
+        <v>32.692548842942877</v>
       </c>
       <c r="AP3">
-        <v>5.8985460885703107</v>
+        <v>5.8985460295019196</v>
       </c>
       <c r="AQ3">
-        <v>21.287391963570652</v>
+        <v>21.287391935224136</v>
       </c>
       <c r="AS3">
-        <v>26.857208807671956</v>
+        <v>26.857208782637098</v>
       </c>
       <c r="AT3">
-        <v>19.35475193563639</v>
+        <v>19.354751867402292</v>
       </c>
       <c r="AU3">
-        <v>15.060113445963545</v>
+        <v>15.060113395935272</v>
       </c>
       <c r="AV3">
-        <v>5.434574218749991</v>
+        <v>5.4345741571561632</v>
       </c>
       <c r="AW3">
-        <v>3.1094056468204059</v>
+        <v>3.1094055914193937</v>
       </c>
       <c r="AX3">
-        <v>15.569312717474077</v>
+        <v>15.569312652412886</v>
       </c>
       <c r="AY3">
-        <v>41.47552628146542</v>
+        <v>41.475526196567237</v>
       </c>
     </row>
   </sheetData>
